--- a/src/corpus/negss.xlsx
+++ b/src/corpus/negss.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{03A5DF42-8054-4B71-AAF2-A55F45C8876C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A060C55C-960D-4F24-B78D-E827927C5DC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
   <si>
     <t>ohemilylouise im always here for you, please dont be sad, i cant bear it  &lt;333</t>
   </si>
@@ -3023,6 +3023,10 @@
   </si>
   <si>
     <t>bexiclepop She's just a little kid under immense pressure  And ? is good, DEAL.</t>
+  </si>
+  <si>
+    <t>how how how how</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3353,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
-      <selection activeCell="B997" sqref="B997"/>
+      <selection activeCell="B1001" sqref="B1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18732,11 +18736,11 @@
         <v>959</v>
       </c>
       <c r="C961" s="1">
-        <f t="shared" ref="C961:C1000" si="30">LEN(B961)</f>
+        <f t="shared" ref="C961:C1001" si="30">LEN(B961)</f>
         <v>80</v>
       </c>
       <c r="D961" s="1" t="str">
-        <f t="shared" ref="D961:D1000" si="31">IF((LENB(B961)-LEN(B961))&gt;=2,"1","0")</f>
+        <f t="shared" ref="D961:D1001" si="31">IF((LENB(B961)-LEN(B961))&gt;=2,"1","0")</f>
         <v>0</v>
       </c>
     </row>
@@ -19360,6 +19364,22 @@
         <v>80</v>
       </c>
       <c r="D1000" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1001" s="1">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="D1001" s="1" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
